--- a/biology/Médecine/Atrésie_pulmonaire_à_septum_ouvert/Atrésie_pulmonaire_à_septum_ouvert.xlsx
+++ b/biology/Médecine/Atrésie_pulmonaire_à_septum_ouvert/Atrésie_pulmonaire_à_septum_ouvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atrésie pulmonaire à septum ouvert est  une cardiopathie congénitale apparaissant très tôt dans l'embryogenèse et résultant du basculement total en avant du septum conal. Ce basculement aboutit à une artère pulmonaire ne se connectant pas avec le ventricule droit. Cette cardiopathie fait partie du spectre des cardiopathies conotroncales. Le basculement partiel du septum conal en avant aboutit à la tétralogie de Fallot.
 En raison de l'absence de continuité entre artère pulmonaire et le ventricule droit, la vascularisation pulmonaire est assurée par :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette anomalie résulte soit de facteurs environnementaux :
 Diabète maternel
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,10 +577,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anténatal
-Postnatal
-Clinique
-Le signe majeur est la cyanose dont l'importance dépend de la suppléance pulmonaire :
+          <t>Postnatal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe majeur est la cyanose dont l'importance dépend de la suppléance pulmonaire :
 En cas de vascularisation pulmonaire par le canal artériel, la cyanose est modérée voire absente tant que celui-ci reste ouvert.
 En cas de type IV : l'importance de la cyanose dépend du débit pulmonaire.
 À l'auscultation : souffle systolique du bord gauche, absence du bruit de fermeture de la valve pulmonaire et absence de souffle d'éjection systolique comme dans la tétralogie de Fallot.
@@ -582,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +621,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En fonction du type  assurant la vascularisation pulmonaire, on distingue les :
 Stade I : artère pulmonaire vascularisée par le canal artériel ;
@@ -616,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +657,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement de cette cardiopathie est uniquement chirurgical.
 </t>
@@ -647,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,6 +691,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -673,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,6 +719,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_pulmonaire_%C3%A0_septum_ouvert</t>
+          <t>Atrésie_pulmonaire_à_septum_ouvert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -718,6 +747,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
